--- a/Data/EC/NIT-9001812472.xlsx
+++ b/Data/EC/NIT-9001812472.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C847C7-C641-438B-ACD8-BE8774BE61C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBF2DD5-B254-4953-8C79-468CAEF9DB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF01D0BE-3006-4807-BDC5-363546C62971}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{93C0241E-7444-4CF7-B426-975169F309AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="119">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,292 +71,295 @@
     <t>JUAN MANUEL GOMEZ RUIZ</t>
   </si>
   <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>73187603</t>
+  </si>
+  <si>
+    <t>ANTONIO CARLOS DE LA BARRERA PORTO</t>
+  </si>
+  <si>
+    <t>1047375329</t>
+  </si>
+  <si>
+    <t>FERNANDO ENRIQUE DE LA BARRERA PORTO</t>
+  </si>
+  <si>
+    <t>79953580</t>
+  </si>
+  <si>
+    <t>CARLOS HERNANDO LEYVA ROLON</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>73187603</t>
-  </si>
-  <si>
-    <t>ANTONIO CARLOS DE LA BARRERA PORTO</t>
-  </si>
-  <si>
-    <t>1047375329</t>
-  </si>
-  <si>
-    <t>FERNANDO ENRIQUE DE LA BARRERA PORTO</t>
-  </si>
-  <si>
-    <t>79953580</t>
-  </si>
-  <si>
-    <t>CARLOS HERNANDO LEYVA ROLON</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -455,7 +458,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -468,9 +473,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -670,23 +673,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,10 +717,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,7 +773,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D44FCE0-690A-488E-5460-F6440EA83B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B56636B-D95D-F01D-42C2-A94119B5F8BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,8 +1124,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00BC09F-DAC5-4C32-9C88-4F574CF4A8FD}">
-  <dimension ref="B2:J381"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75D8861-D6B5-40FF-AC96-0D5B265DB460}">
+  <dimension ref="B2:J385"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1146,7 +1149,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1191,7 +1194,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1223,12 +1226,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14717280</v>
+        <v>14881680</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,17 +1242,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1276,13 +1279,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>112</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1299,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="G16" s="18">
         <v>1500000</v>
@@ -1313,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>19200</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1336,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>60000</v>
+        <v>17280</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1359,19 +1362,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>60000</v>
+        <v>19200</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1388,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>60000</v>
@@ -1405,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1428,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1451,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1497,19 +1500,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1520,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1543,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1572,7 +1575,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>60000</v>
@@ -1589,19 +1592,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1612,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1635,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G31" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1664,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>60000</v>
@@ -1681,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1704,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G34" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1727,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G35" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1756,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>60000</v>
@@ -1773,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G37" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1796,19 +1799,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1819,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G39" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1848,7 +1851,7 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>60000</v>
@@ -1865,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G41" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1888,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G42" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1911,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1940,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>60000</v>
@@ -1957,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G45" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1980,19 +1983,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2003,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F47" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2032,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>60000</v>
@@ -2049,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G49" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2072,19 +2075,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2095,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F51" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G51" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2124,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>60000</v>
@@ -2141,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G53" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2164,19 +2167,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G54" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2187,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G55" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2216,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
         <v>60000</v>
@@ -2233,19 +2236,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2256,19 +2259,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2279,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F59" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2308,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
         <v>60000</v>
@@ -2325,19 +2328,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2348,19 +2351,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G62" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2371,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F63" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G63" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2400,7 +2403,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F64" s="18">
         <v>60000</v>
@@ -2417,19 +2420,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G65" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2440,19 +2443,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G66" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2463,19 +2466,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F67" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G67" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2492,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F68" s="18">
         <v>60000</v>
@@ -2509,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G69" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2532,19 +2535,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F70" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G70" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2555,19 +2558,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F71" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G71" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2584,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F72" s="18">
         <v>60000</v>
@@ -2601,19 +2604,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G73" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2624,19 +2627,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F74" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G74" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2647,19 +2650,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F75" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G75" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2676,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
         <v>60000</v>
@@ -2693,19 +2696,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G77" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2716,19 +2719,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F78" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G78" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2739,19 +2742,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F79" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2768,7 +2771,7 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
         <v>60000</v>
@@ -2785,19 +2788,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2808,19 +2811,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G82" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2831,19 +2834,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F83" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G83" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2860,7 +2863,7 @@
         <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
         <v>60000</v>
@@ -2877,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G85" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2900,19 +2903,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="F86" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G86" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2923,19 +2926,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F87" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G87" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2952,7 +2955,7 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F88" s="18">
         <v>60000</v>
@@ -2969,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G89" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2992,19 +2995,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G90" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3015,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F91" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G91" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3044,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
         <v>60000</v>
@@ -3061,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F93" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G93" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3084,19 +3087,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G94" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3107,19 +3110,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="F95" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G95" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3136,7 +3139,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
         <v>60000</v>
@@ -3153,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F97" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G97" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3176,19 +3179,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G98" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3199,19 +3202,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F99" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G99" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3228,7 +3231,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>60000</v>
@@ -3245,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G101" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3268,19 +3271,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
-        <v>60000</v>
+        <v>32400</v>
       </c>
       <c r="G102" s="18">
-        <v>1500000</v>
+        <v>810000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3291,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F103" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G103" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3320,7 +3323,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F104" s="18">
         <v>60000</v>
@@ -3337,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
-        <v>30000</v>
+        <v>36000</v>
       </c>
       <c r="G105" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3360,19 +3363,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F106" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G106" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3383,13 +3386,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F107" s="18">
         <v>36000</v>
@@ -3406,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G108" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3429,13 +3432,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F109" s="18">
         <v>36000</v>
@@ -3452,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F110" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G110" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3475,13 +3478,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F111" s="18">
         <v>36000</v>
@@ -3498,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F112" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G112" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3521,13 +3524,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F113" s="18">
         <v>36000</v>
@@ -3544,19 +3547,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F114" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G114" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3567,13 +3570,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F115" s="18">
         <v>36000</v>
@@ -3590,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F116" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G116" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3613,13 +3616,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F117" s="18">
         <v>36000</v>
@@ -3636,19 +3639,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F118" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G118" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3659,13 +3662,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F119" s="18">
         <v>36000</v>
@@ -3682,19 +3685,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F120" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G120" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3705,13 +3708,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F121" s="18">
         <v>36000</v>
@@ -3728,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F122" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G122" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3751,13 +3754,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F123" s="18">
         <v>36000</v>
@@ -3774,19 +3777,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F124" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G124" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3797,13 +3800,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F125" s="18">
         <v>36000</v>
@@ -3820,19 +3823,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F126" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G126" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3843,13 +3846,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F127" s="18">
         <v>36000</v>
@@ -3866,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F128" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G128" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3889,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F129" s="18">
         <v>36000</v>
@@ -3912,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G130" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3935,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F131" s="18">
         <v>36000</v>
@@ -3958,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F132" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G132" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3981,13 +3984,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F133" s="18">
         <v>36000</v>
@@ -4004,19 +4007,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F134" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G134" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4027,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F135" s="18">
         <v>36000</v>
@@ -4050,19 +4053,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F136" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G136" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4073,13 +4076,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F137" s="18">
         <v>36000</v>
@@ -4096,19 +4099,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F138" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G138" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4119,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F139" s="18">
         <v>36000</v>
@@ -4142,19 +4145,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F140" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G140" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4165,13 +4168,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F141" s="18">
         <v>36000</v>
@@ -4188,19 +4191,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F142" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G142" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4211,10 +4214,10 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>48</v>
@@ -4234,19 +4237,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F144" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G144" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4257,13 +4260,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F145" s="18">
         <v>36000</v>
@@ -4280,19 +4283,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F146" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G146" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4303,13 +4306,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F147" s="18">
         <v>36000</v>
@@ -4326,19 +4329,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F148" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G148" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4349,13 +4352,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F149" s="18">
         <v>36000</v>
@@ -4372,19 +4375,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F150" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G150" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4395,13 +4398,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F151" s="18">
         <v>36000</v>
@@ -4418,19 +4421,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F152" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G152" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4441,13 +4444,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F153" s="18">
         <v>36000</v>
@@ -4464,19 +4467,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F154" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G154" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4487,13 +4490,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F155" s="18">
         <v>36000</v>
@@ -4510,19 +4513,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F156" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G156" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4533,13 +4536,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F157" s="18">
         <v>36000</v>
@@ -4556,19 +4559,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F158" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G158" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4579,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F159" s="18">
         <v>36000</v>
@@ -4602,19 +4605,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F160" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G160" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4625,13 +4628,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F161" s="18">
         <v>36000</v>
@@ -4648,19 +4651,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F162" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G162" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4671,13 +4674,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F163" s="18">
         <v>36000</v>
@@ -4694,19 +4697,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F164" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G164" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4717,13 +4720,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F165" s="18">
         <v>36000</v>
@@ -4740,19 +4743,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F166" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G166" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4763,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F167" s="18">
         <v>36000</v>
@@ -4786,19 +4789,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F168" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G168" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4809,13 +4812,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F169" s="18">
         <v>36000</v>
@@ -4832,19 +4835,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F170" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G170" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4855,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F171" s="18">
         <v>36000</v>
@@ -4878,19 +4881,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F172" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G172" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4901,13 +4904,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F173" s="18">
         <v>36000</v>
@@ -4924,19 +4927,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="F174" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G174" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4947,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F175" s="18">
         <v>36000</v>
@@ -4970,19 +4973,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F176" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G176" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4993,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F177" s="18">
         <v>36000</v>
@@ -5016,19 +5019,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F178" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G178" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5039,13 +5042,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="F179" s="18">
         <v>36000</v>
@@ -5062,19 +5065,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F180" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G180" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5085,13 +5088,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F181" s="18">
         <v>36000</v>
@@ -5108,19 +5111,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F182" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G182" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5131,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F183" s="18">
         <v>36000</v>
@@ -5154,19 +5157,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F184" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G184" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5177,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F185" s="18">
         <v>36000</v>
@@ -5200,19 +5203,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F186" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G186" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5223,13 +5226,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="F187" s="18">
         <v>36000</v>
@@ -5246,19 +5249,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="F188" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G188" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5269,13 +5272,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F189" s="18">
         <v>36000</v>
@@ -5292,19 +5295,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F190" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G190" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5315,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F191" s="18">
         <v>36000</v>
@@ -5338,19 +5341,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F192" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G192" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5361,13 +5364,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="F193" s="18">
         <v>36000</v>
@@ -5384,19 +5387,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="F194" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G194" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5407,16 +5410,16 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F195" s="18">
-        <v>19200</v>
+        <v>36000</v>
       </c>
       <c r="G195" s="18">
         <v>900000</v>
@@ -5430,19 +5433,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F196" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G196" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5453,19 +5456,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F197" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G197" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5476,13 +5479,13 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F198" s="18">
         <v>32400</v>
@@ -5499,19 +5502,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F199" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G199" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5522,19 +5525,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="F200" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G200" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5545,19 +5548,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="F201" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G201" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5568,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F202" s="18">
         <v>32400</v>
@@ -5591,19 +5594,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="F203" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G203" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5614,19 +5617,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F204" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G204" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5637,19 +5640,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F205" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G205" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5660,13 +5663,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F206" s="18">
         <v>32400</v>
@@ -5683,19 +5686,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F207" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G207" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5706,19 +5709,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="F208" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G208" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5729,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F209" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G209" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5752,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F210" s="18">
         <v>32400</v>
@@ -5775,19 +5778,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="F211" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G211" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5798,19 +5801,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F212" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G212" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5821,19 +5824,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F213" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G213" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5844,13 +5847,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F214" s="18">
         <v>32400</v>
@@ -5867,19 +5870,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F215" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G215" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5890,19 +5893,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F216" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G216" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5913,19 +5916,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F217" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G217" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5936,13 +5939,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F218" s="18">
         <v>32400</v>
@@ -5959,19 +5962,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F219" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G219" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5982,19 +5985,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F220" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G220" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6005,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F221" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G221" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6028,13 +6031,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F222" s="18">
         <v>32400</v>
@@ -6051,19 +6054,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F223" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G223" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6074,19 +6077,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F224" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G224" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6097,19 +6100,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F225" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G225" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6120,13 +6123,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F226" s="18">
         <v>32400</v>
@@ -6143,19 +6146,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F227" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G227" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6166,19 +6169,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F228" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G228" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6189,19 +6192,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F229" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G229" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6212,13 +6215,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F230" s="18">
         <v>32400</v>
@@ -6235,19 +6238,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F231" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G231" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6258,19 +6261,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F232" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G232" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6281,19 +6284,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F233" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G233" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6304,13 +6307,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F234" s="18">
         <v>32400</v>
@@ -6327,19 +6330,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F235" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G235" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6350,19 +6353,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F236" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G236" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6373,19 +6376,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="F237" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G237" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6396,13 +6399,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F238" s="18">
         <v>32400</v>
@@ -6419,19 +6422,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F239" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G239" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6442,19 +6445,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F240" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G240" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6465,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F241" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G241" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6488,13 +6491,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F242" s="18">
         <v>32400</v>
@@ -6511,19 +6514,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F243" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G243" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6534,19 +6537,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F244" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G244" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6557,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F245" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G245" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6580,13 +6583,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F246" s="18">
         <v>32400</v>
@@ -6603,19 +6606,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F247" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G247" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6626,19 +6629,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F248" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G248" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6649,19 +6652,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F249" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G249" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6672,13 +6675,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F250" s="18">
         <v>32400</v>
@@ -6695,19 +6698,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F251" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G251" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6718,19 +6721,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F252" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G252" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6741,19 +6744,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F253" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G253" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6764,13 +6767,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F254" s="18">
         <v>32400</v>
@@ -6787,19 +6790,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F255" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G255" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6810,19 +6813,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F256" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G256" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6833,19 +6836,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F257" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G257" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6856,13 +6859,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F258" s="18">
         <v>32400</v>
@@ -6879,19 +6882,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F259" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G259" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6902,19 +6905,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F260" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G260" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6925,19 +6928,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F261" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G261" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6948,13 +6951,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F262" s="18">
         <v>32400</v>
@@ -6971,19 +6974,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E263" s="16" t="s">
         <v>78</v>
       </c>
       <c r="F263" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G263" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6994,19 +6997,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E264" s="16" t="s">
         <v>79</v>
       </c>
       <c r="F264" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G264" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7017,19 +7020,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F265" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G265" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7040,13 +7043,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F266" s="18">
         <v>32400</v>
@@ -7063,19 +7066,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F267" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G267" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7086,19 +7089,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F268" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G268" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7109,19 +7112,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F269" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G269" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7132,13 +7135,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F270" s="18">
         <v>32400</v>
@@ -7155,19 +7158,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F271" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G271" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7178,19 +7181,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F272" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G272" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7201,19 +7204,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F273" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G273" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7224,13 +7227,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F274" s="18">
         <v>32400</v>
@@ -7247,19 +7250,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F275" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G275" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7270,19 +7273,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F276" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G276" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7293,19 +7296,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F277" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G277" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7316,13 +7319,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F278" s="18">
         <v>32400</v>
@@ -7339,19 +7342,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F279" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G279" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7362,19 +7365,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F280" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G280" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7385,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F281" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G281" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7408,13 +7411,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F282" s="18">
         <v>32400</v>
@@ -7431,19 +7434,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F283" s="18">
-        <v>32400</v>
+        <v>36000</v>
       </c>
       <c r="G283" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7454,19 +7457,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F284" s="18">
-        <v>32400</v>
+        <v>60000</v>
       </c>
       <c r="G284" s="18">
-        <v>810000</v>
+        <v>1500000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7477,19 +7480,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F285" s="18">
-        <v>17280</v>
+        <v>36000</v>
       </c>
       <c r="G285" s="18">
-        <v>810000</v>
+        <v>900000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7500,19 +7503,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F286" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G286" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7523,13 +7526,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F287" s="18">
         <v>36000</v>
@@ -7546,19 +7549,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F288" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G288" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7569,13 +7572,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="F289" s="18">
         <v>36000</v>
@@ -7592,19 +7595,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="F290" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G290" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7615,13 +7618,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F291" s="18">
         <v>36000</v>
@@ -7638,19 +7641,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F292" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G292" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7661,13 +7664,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F293" s="18">
         <v>36000</v>
@@ -7684,19 +7687,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F294" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G294" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7707,13 +7710,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F295" s="18">
         <v>36000</v>
@@ -7730,19 +7733,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="F296" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G296" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7753,13 +7756,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F297" s="18">
         <v>36000</v>
@@ -7776,19 +7779,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F298" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G298" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7799,13 +7802,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="F299" s="18">
         <v>36000</v>
@@ -7822,19 +7825,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F300" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G300" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7845,13 +7848,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F301" s="18">
         <v>36000</v>
@@ -7868,19 +7871,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="F302" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G302" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7891,13 +7894,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F303" s="18">
         <v>36000</v>
@@ -7914,19 +7917,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F304" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G304" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7937,13 +7940,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F305" s="18">
         <v>36000</v>
@@ -7960,19 +7963,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F306" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G306" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -7983,13 +7986,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="F307" s="18">
         <v>36000</v>
@@ -8006,19 +8009,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F308" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G308" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8029,13 +8032,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F309" s="18">
         <v>36000</v>
@@ -8052,19 +8055,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F310" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G310" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8075,13 +8078,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F311" s="18">
         <v>36000</v>
@@ -8098,19 +8101,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F312" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G312" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8121,13 +8124,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F313" s="18">
         <v>36000</v>
@@ -8144,19 +8147,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F314" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G314" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8167,13 +8170,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F315" s="18">
         <v>36000</v>
@@ -8190,19 +8193,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F316" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G316" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8213,13 +8216,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F317" s="18">
         <v>36000</v>
@@ -8236,19 +8239,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="F318" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G318" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8259,13 +8262,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F319" s="18">
         <v>36000</v>
@@ -8282,19 +8285,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F320" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G320" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8305,13 +8308,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F321" s="18">
         <v>36000</v>
@@ -8328,19 +8331,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F322" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G322" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8351,13 +8354,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F323" s="18">
         <v>36000</v>
@@ -8374,19 +8377,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F324" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G324" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8397,13 +8400,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F325" s="18">
         <v>36000</v>
@@ -8420,19 +8423,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F326" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G326" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8443,13 +8446,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F327" s="18">
         <v>36000</v>
@@ -8466,19 +8469,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F328" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G328" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8489,13 +8492,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="F329" s="18">
         <v>36000</v>
@@ -8512,19 +8515,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="F330" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G330" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8535,13 +8538,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F331" s="18">
         <v>36000</v>
@@ -8558,19 +8561,19 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F332" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G332" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H332" s="19"/>
       <c r="I332" s="19"/>
@@ -8581,13 +8584,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F333" s="18">
         <v>36000</v>
@@ -8604,19 +8607,19 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F334" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G334" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H334" s="19"/>
       <c r="I334" s="19"/>
@@ -8627,13 +8630,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F335" s="18">
         <v>36000</v>
@@ -8650,19 +8653,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F336" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G336" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8673,13 +8676,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="F337" s="18">
         <v>36000</v>
@@ -8696,19 +8699,19 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F338" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G338" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H338" s="19"/>
       <c r="I338" s="19"/>
@@ -8719,13 +8722,13 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F339" s="18">
         <v>36000</v>
@@ -8742,19 +8745,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F340" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G340" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8765,13 +8768,13 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F341" s="18">
         <v>36000</v>
@@ -8788,19 +8791,19 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F342" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G342" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H342" s="19"/>
       <c r="I342" s="19"/>
@@ -8811,13 +8814,13 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F343" s="18">
         <v>36000</v>
@@ -8834,19 +8837,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F344" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G344" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8857,13 +8860,13 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F345" s="18">
         <v>36000</v>
@@ -8880,19 +8883,19 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F346" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G346" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H346" s="19"/>
       <c r="I346" s="19"/>
@@ -8903,13 +8906,13 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F347" s="18">
         <v>36000</v>
@@ -8926,19 +8929,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F348" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G348" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -8949,13 +8952,13 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F349" s="18">
         <v>36000</v>
@@ -8972,19 +8975,19 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F350" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G350" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H350" s="19"/>
       <c r="I350" s="19"/>
@@ -8995,13 +8998,13 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F351" s="18">
         <v>36000</v>
@@ -9018,19 +9021,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F352" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G352" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9041,13 +9044,13 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F353" s="18">
         <v>36000</v>
@@ -9064,19 +9067,19 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F354" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G354" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H354" s="19"/>
       <c r="I354" s="19"/>
@@ -9087,13 +9090,13 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F355" s="18">
         <v>36000</v>
@@ -9110,19 +9113,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F356" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G356" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9133,13 +9136,13 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F357" s="18">
         <v>36000</v>
@@ -9156,19 +9159,19 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F358" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G358" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H358" s="19"/>
       <c r="I358" s="19"/>
@@ -9179,13 +9182,13 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F359" s="18">
         <v>36000</v>
@@ -9202,19 +9205,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F360" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G360" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9225,13 +9228,13 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F361" s="18">
         <v>36000</v>
@@ -9248,19 +9251,19 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="F362" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G362" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H362" s="19"/>
       <c r="I362" s="19"/>
@@ -9271,13 +9274,13 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F363" s="18">
         <v>36000</v>
@@ -9294,19 +9297,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F364" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G364" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9317,13 +9320,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F365" s="18">
         <v>36000</v>
@@ -9340,19 +9343,19 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F366" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G366" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H366" s="19"/>
       <c r="I366" s="19"/>
@@ -9363,13 +9366,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F367" s="18">
         <v>36000</v>
@@ -9386,19 +9389,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E368" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D368" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E368" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="F368" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G368" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9409,13 +9412,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D369" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="D369" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E369" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="F369" s="18">
         <v>36000</v>
@@ -9432,19 +9435,19 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D370" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="F370" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G370" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H370" s="19"/>
       <c r="I370" s="19"/>
@@ -9455,13 +9458,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E371" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="D371" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E371" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="F371" s="18">
         <v>36000</v>
@@ -9478,19 +9481,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D372" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E372" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E372" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="F372" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G372" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9501,13 +9504,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D373" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E373" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E373" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="F373" s="18">
         <v>36000</v>
@@ -9524,75 +9527,167 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="D374" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E374" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E374" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="F374" s="18">
-        <v>36000</v>
+        <v>32400</v>
       </c>
       <c r="G374" s="18">
-        <v>900000</v>
+        <v>810000</v>
       </c>
       <c r="H374" s="19"/>
       <c r="I374" s="19"/>
       <c r="J374" s="20"/>
     </row>
     <row r="375" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B375" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C375" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D375" s="23" t="s">
+      <c r="B375" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C375" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E375" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E375" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F375" s="24">
-        <v>19200</v>
-      </c>
-      <c r="G375" s="24">
-        <v>900000</v>
-      </c>
-      <c r="H375" s="25"/>
-      <c r="I375" s="25"/>
-      <c r="J375" s="26"/>
-    </row>
-    <row r="380" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B380" s="32" t="s">
+      <c r="F375" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G375" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H375" s="19"/>
+      <c r="I375" s="19"/>
+      <c r="J375" s="20"/>
+    </row>
+    <row r="376" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B376" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C376" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E376" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F376" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G376" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H376" s="19"/>
+      <c r="I376" s="19"/>
+      <c r="J376" s="20"/>
+    </row>
+    <row r="377" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B377" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D377" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F377" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G377" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H377" s="19"/>
+      <c r="I377" s="19"/>
+      <c r="J377" s="20"/>
+    </row>
+    <row r="378" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B378" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F378" s="18">
+        <v>32400</v>
+      </c>
+      <c r="G378" s="18">
+        <v>810000</v>
+      </c>
+      <c r="H378" s="19"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="20"/>
+    </row>
+    <row r="379" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B379" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E379" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F379" s="24">
+        <v>36000</v>
+      </c>
+      <c r="G379" s="24">
+        <v>900000</v>
+      </c>
+      <c r="H379" s="25"/>
+      <c r="I379" s="25"/>
+      <c r="J379" s="26"/>
+    </row>
+    <row r="384" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B384" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C384" s="32"/>
+      <c r="H384" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B385" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C380" s="32"/>
-      <c r="H380" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-    </row>
-    <row r="381" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B381" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C381" s="32"/>
-      <c r="H381" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I381" s="1"/>
-      <c r="J381" s="1"/>
+      <c r="C385" s="32"/>
+      <c r="H385" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B381:C381"/>
-    <mergeCell ref="B380:C380"/>
-    <mergeCell ref="H381:J381"/>
-    <mergeCell ref="H380:J380"/>
+    <mergeCell ref="B385:C385"/>
+    <mergeCell ref="B384:C384"/>
+    <mergeCell ref="H385:J385"/>
+    <mergeCell ref="H384:J384"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
